--- a/Planejamento/Documentos Adicionais/Cronograma.xlsx
+++ b/Planejamento/Documentos Adicionais/Cronograma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\OneDrive\Documentos\Engenharia de Software\Gerência de Projeto de Software\Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\OneDrive\Documentos\Engenharia de Software\Gerência de Projeto de Software\Projeto\Planejamento\Documentos Adicionais\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -274,6 +274,39 @@
   </si>
   <si>
     <t>Ger. Projeto e Implementadores</t>
+  </si>
+  <si>
+    <t>Cronograma</t>
+  </si>
+  <si>
+    <t>Vigia Escolar</t>
+  </si>
+  <si>
+    <t>Controle de Versão</t>
+  </si>
+  <si>
+    <t>Versão</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>Notas da Revisão</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Samuel Rocha Costa</t>
+  </si>
+  <si>
+    <t>Criação e definição do Cronograma</t>
+  </si>
+  <si>
+    <t>Revisão final e correção de erros</t>
   </si>
 </sst>
 </file>
@@ -283,7 +316,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$R$-416]&quot; &quot;#,##0.00;[Red]&quot;-&quot;[$R$-416]&quot; &quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -310,16 +343,41 @@
       <color rgb="FF000000"/>
       <name val="Liberation Sans"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -327,6 +385,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -339,7 +412,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -354,6 +427,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -638,730 +744,831 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="25.375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="18">
+      <c r="A1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" ht="18">
+      <c r="A2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
+      <c r="B4" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
+      <c r="B5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="9">
+        <v>42800</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9">
+        <v>42801</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="15">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="3">
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C11" s="4">
         <v>42818</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D11" s="4">
         <v>42923</v>
       </c>
-      <c r="E2" s="3">
-        <f>D2-C2</f>
+      <c r="E11" s="3">
+        <f>D11-C11</f>
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="15">
-      <c r="A3" s="1" t="s">
+    <row r="12" spans="1:7" ht="15">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C12" s="2">
         <v>42818</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D12" s="2">
         <v>42824</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E12" s="1">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="3" t="s">
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C13" s="4">
         <v>42818</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D13" s="4">
         <v>42818</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="3" t="s">
+      <c r="F13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C14" s="4">
         <v>42818</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D14" s="4">
         <v>42818</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25">
-      <c r="A6" s="3" t="s">
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" ht="15">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C15" s="4">
         <v>42819</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D15" s="4">
         <v>42819</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25">
-      <c r="A7" s="3" t="s">
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C16" s="4">
         <v>42820</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D16" s="4">
         <v>42820</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4">
-        <v>42821</v>
-      </c>
-      <c r="D8" s="4">
-        <v>42823</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4">
-        <v>42824</v>
-      </c>
-      <c r="D9" s="4">
-        <v>42824</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" ht="15">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2">
-        <v>42825</v>
-      </c>
-      <c r="D10" s="2">
-        <v>42849</v>
-      </c>
-      <c r="E10" s="1">
-        <v>23</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.25">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="4">
-        <v>42825</v>
-      </c>
-      <c r="D11" s="4">
-        <v>42827</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.25">
-      <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="4">
-        <v>42828</v>
-      </c>
-      <c r="D12" s="4">
-        <v>42837</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.25">
-      <c r="A13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4">
-        <v>42837</v>
-      </c>
-      <c r="D13" s="4">
-        <v>42839</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.25">
-      <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="4">
-        <v>42840</v>
-      </c>
-      <c r="D14" s="4">
-        <v>42845</v>
-      </c>
-      <c r="E14" s="3">
-        <v>6</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.25">
-      <c r="A15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="4">
-        <v>42846</v>
-      </c>
-      <c r="D15" s="4">
-        <v>42848</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="4">
-        <v>42849</v>
-      </c>
-      <c r="D16" s="4">
-        <v>42849</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4">
+        <v>42821</v>
+      </c>
+      <c r="D17" s="4">
+        <v>42823</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4">
+        <v>42824</v>
+      </c>
+      <c r="D18" s="4">
+        <v>42824</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2">
+        <v>42825</v>
+      </c>
+      <c r="D19" s="2">
+        <v>42849</v>
+      </c>
+      <c r="E19" s="1">
+        <v>23</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" ht="15">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2">
-        <v>42850</v>
-      </c>
-      <c r="D17" s="2">
-        <v>42878</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4">
+        <v>42825</v>
+      </c>
+      <c r="D20" s="4">
+        <v>42827</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.25">
-      <c r="A18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="4">
-        <v>42850</v>
-      </c>
-      <c r="D18" s="4">
-        <v>42853</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.25">
-      <c r="A19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="4">
-        <v>42854</v>
-      </c>
-      <c r="D19" s="4">
-        <v>42857</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.25">
-      <c r="A20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="4">
-        <v>42858</v>
-      </c>
-      <c r="D20" s="4">
-        <v>42858</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.25">
-      <c r="A21" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C21" s="4">
-        <v>42859</v>
+        <v>42828</v>
       </c>
       <c r="D21" s="4">
-        <v>42862</v>
+        <v>42837</v>
       </c>
       <c r="E21" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>42863</v>
+        <v>42837</v>
       </c>
       <c r="D22" s="4">
-        <v>42865</v>
+        <v>42839</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C23" s="4">
-        <v>42866</v>
+        <v>42840</v>
       </c>
       <c r="D23" s="4">
-        <v>42867</v>
+        <v>42845</v>
       </c>
       <c r="E23" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C24" s="4">
-        <v>42868</v>
+        <v>42846</v>
       </c>
       <c r="D24" s="4">
-        <v>42870</v>
+        <v>42848</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C25" s="4">
-        <v>42871</v>
+        <v>42849</v>
       </c>
       <c r="D25" s="4">
-        <v>42871</v>
+        <v>42849</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.25">
-      <c r="A26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="4">
-        <v>42872</v>
-      </c>
-      <c r="D26" s="4">
-        <v>42873</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="2">
+        <v>42850</v>
+      </c>
+      <c r="D26" s="2">
+        <v>42878</v>
+      </c>
+      <c r="E26" s="1">
+        <v>29</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C27" s="4">
-        <v>42874</v>
+        <v>42850</v>
       </c>
       <c r="D27" s="4">
-        <v>42875</v>
+        <v>42853</v>
       </c>
       <c r="E27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="5" customFormat="1" ht="15">
       <c r="A28" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C28" s="4">
-        <v>42876</v>
+        <v>42854</v>
       </c>
       <c r="D28" s="4">
-        <v>42877</v>
+        <v>42857</v>
       </c>
       <c r="E28" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.25">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C29" s="4">
-        <v>42878</v>
+        <v>42858</v>
       </c>
       <c r="D29" s="4">
-        <v>42878</v>
+        <v>42858</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="4">
+        <v>42859</v>
+      </c>
+      <c r="D30" s="4">
+        <v>42862</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="4">
+        <v>42863</v>
+      </c>
+      <c r="D31" s="4">
+        <v>42865</v>
+      </c>
+      <c r="E31" s="3">
+        <v>3</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="4">
+        <v>42866</v>
+      </c>
+      <c r="D32" s="4">
+        <v>42867</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="4">
+        <v>42868</v>
+      </c>
+      <c r="D33" s="4">
+        <v>42870</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="4">
+        <v>42871</v>
+      </c>
+      <c r="D34" s="4">
+        <v>42871</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="4">
+        <v>42872</v>
+      </c>
+      <c r="D35" s="4">
+        <v>42873</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="4">
+        <v>42874</v>
+      </c>
+      <c r="D36" s="4">
+        <v>42875</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="4">
+        <v>42876</v>
+      </c>
+      <c r="D37" s="4">
+        <v>42877</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="4">
+        <v>42878</v>
+      </c>
+      <c r="D38" s="4">
+        <v>42878</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" ht="15">
-      <c r="A30" s="1" t="s">
+    <row r="39" spans="1:7" ht="15">
+      <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C39" s="2">
         <v>42879</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D39" s="2">
         <v>42923</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E39" s="1">
         <v>46</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="14.25">
-      <c r="A31" s="3" t="s">
+      <c r="F39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C40" s="4">
         <v>42879</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D40" s="4">
         <v>42906</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E40" s="3">
         <v>28</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.25">
-      <c r="A32" s="3" t="s">
+    <row r="41" spans="1:7">
+      <c r="A41" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C41" s="4">
         <v>42907</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D41" s="4">
         <v>42911</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E41" s="3">
         <v>5</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.25">
-      <c r="A33" s="3" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C42" s="4">
         <v>42912</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D42" s="4">
         <v>42916</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E42" s="3">
         <v>5</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.25">
-      <c r="A34" s="3" t="s">
+    <row r="43" spans="1:7">
+      <c r="A43" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D43" s="4">
         <v>42890</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E43" s="3">
         <v>5</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.25">
-      <c r="A35" s="3" t="s">
+    <row r="44" spans="1:7">
+      <c r="A44" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C44" s="4">
         <v>42891</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D44" s="4">
         <v>42923</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E44" s="3">
         <v>3</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>

--- a/Planejamento/Documentos Adicionais/Cronograma.xlsx
+++ b/Planejamento/Documentos Adicionais/Cronograma.xlsx
@@ -357,10 +357,11 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -377,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -400,6 +401,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -412,14 +422,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,38 +431,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -479,6 +502,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1860550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>441325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7134225" y="200025"/>
+          <a:ext cx="889000" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -744,828 +814,918 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C4" sqref="C4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="1" max="1" width="1.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:13" s="12" customFormat="1" ht="9" customHeight="1"/>
+    <row r="2" spans="1:13" ht="42" customHeight="1">
+      <c r="B2" s="12"/>
+      <c r="C2" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" ht="18">
-      <c r="A2" s="16" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="1:13" ht="37.5" customHeight="1">
+      <c r="B3" s="12"/>
+      <c r="C3" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75">
-      <c r="B4" s="12" t="s">
-        <v>87</v>
-      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75">
-      <c r="B5" s="13" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75">
+      <c r="B5" s="12"/>
+      <c r="C5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75">
+      <c r="B6" s="12"/>
+      <c r="C6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D6" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E6" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="12" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="8" t="s">
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="12"/>
+      <c r="C7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="9">
+      <c r="D7" s="5">
         <v>42800</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="8" t="s">
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="12"/>
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9">
+      <c r="D8" s="5">
         <v>42801</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="15">
-      <c r="A10" s="1" t="s">
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="1:13" ht="15">
+      <c r="B11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C11" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H11" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3">
+    <row r="12" spans="1:13">
+      <c r="B12" s="16">
         <v>0</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D12" s="17">
         <v>42818</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E12" s="17">
         <v>42923</v>
       </c>
-      <c r="E11" s="3">
-        <f>D11-C11</f>
+      <c r="F12" s="16">
+        <f>E12-D12</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15">
-      <c r="A12" s="1" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:13" ht="15">
+      <c r="B13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D13" s="15">
         <v>42818</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E13" s="15">
         <v>42824</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F13" s="14">
         <v>7</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
+      <c r="G13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D14" s="17">
         <v>42818</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E14" s="17">
         <v>42818</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
+      <c r="G14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D15" s="17">
         <v>42818</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E15" s="17">
         <v>42818</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" ht="15">
-      <c r="A15" s="3" t="s">
+      <c r="G15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" s="3" customFormat="1" ht="15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D16" s="17">
         <v>42819</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E16" s="17">
         <v>42819</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F16" s="16">
         <v>1</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3" t="s">
+      <c r="G16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D17" s="17">
         <v>42820</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E17" s="17">
         <v>42820</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F17" s="16">
         <v>1</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3" t="s">
+      <c r="G17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C18" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D18" s="17">
         <v>42821</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E18" s="17">
         <v>42823</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F18" s="16">
         <v>3</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3" t="s">
+      <c r="G18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D19" s="17">
         <v>42824</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E19" s="17">
         <v>42824</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F19" s="16">
         <v>1</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15">
-      <c r="A19" s="1" t="s">
+      <c r="G19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" ht="15">
+      <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D20" s="15">
         <v>42825</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E20" s="15">
         <v>42849</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F20" s="14">
         <v>23</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3" t="s">
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D21" s="17">
         <v>42825</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E21" s="17">
         <v>42827</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F21" s="16">
         <v>3</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G21" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3" t="s">
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D22" s="17">
         <v>42828</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E22" s="17">
         <v>42837</v>
       </c>
-      <c r="E21" s="3">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="F22" s="16">
+        <v>10</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="3" t="s">
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D23" s="17">
         <v>42837</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E23" s="17">
         <v>42839</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F23" s="16">
         <v>3</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G23" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3" t="s">
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C24" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D24" s="17">
         <v>42840</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E24" s="17">
         <v>42845</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F24" s="16">
         <v>6</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G24" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="3" t="s">
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C25" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D25" s="17">
         <v>42846</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E25" s="17">
         <v>42848</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F25" s="16">
         <v>3</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G25" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="3" t="s">
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C26" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D26" s="17">
         <v>42849</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E26" s="17">
         <v>42849</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F26" s="16">
         <v>1</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G26" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15">
-      <c r="A26" s="1" t="s">
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" ht="15">
+      <c r="B27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D27" s="15">
         <v>42850</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E27" s="15">
         <v>42878</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F27" s="14">
         <v>29</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="3" t="s">
+      <c r="G27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C28" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="4">
+      <c r="D28" s="17">
         <v>42850</v>
       </c>
-      <c r="D27" s="4">
+      <c r="E28" s="17">
         <v>42853</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F28" s="16">
         <v>4</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="5" customFormat="1" ht="15">
-      <c r="A28" s="3" t="s">
+      <c r="G28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1" ht="15">
+      <c r="A29" s="12"/>
+      <c r="B29" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C29" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D29" s="17">
         <v>42854</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E29" s="17">
         <v>42857</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F29" s="16">
         <v>4</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="3" t="s">
+      <c r="G29" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C30" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D30" s="17">
         <v>42858</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E30" s="17">
         <v>42858</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F30" s="16">
         <v>1</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="3" t="s">
+      <c r="G30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C31" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D31" s="17">
         <v>42859</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E31" s="17">
         <v>42862</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F31" s="16">
         <v>4</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="3" t="s">
+      <c r="G31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C32" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D32" s="17">
         <v>42863</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E32" s="17">
         <v>42865</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F32" s="16">
         <v>3</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="3" t="s">
+      <c r="G32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C33" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="4">
+      <c r="D33" s="17">
         <v>42866</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E33" s="17">
         <v>42867</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F33" s="16">
         <v>2</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="3" t="s">
+      <c r="G33" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C34" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D34" s="17">
         <v>42868</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E34" s="17">
         <v>42870</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F34" s="16">
         <v>3</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="3" t="s">
+      <c r="G34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="16"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C35" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D35" s="17">
         <v>42871</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E35" s="17">
         <v>42871</v>
       </c>
-      <c r="E34" s="3">
+      <c r="F35" s="16">
         <v>1</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="3" t="s">
+      <c r="G35" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C36" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D36" s="17">
         <v>42872</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E36" s="17">
         <v>42873</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F36" s="16">
         <v>2</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G36" s="16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="3" t="s">
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C37" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D37" s="17">
         <v>42874</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E37" s="17">
         <v>42875</v>
       </c>
-      <c r="E36" s="3">
+      <c r="F37" s="16">
         <v>2</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G37" s="16" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="3" t="s">
+      <c r="H37" s="16"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C38" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D38" s="17">
         <v>42876</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E38" s="17">
         <v>42877</v>
       </c>
-      <c r="E37" s="3">
+      <c r="F38" s="16">
         <v>2</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="3" t="s">
+      <c r="G38" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C39" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D39" s="17">
         <v>42878</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E39" s="17">
         <v>42878</v>
       </c>
-      <c r="E38" s="3">
+      <c r="F39" s="16">
         <v>1</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G39" s="16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="15">
-      <c r="A39" s="1" t="s">
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="2:8" ht="15">
+      <c r="B40" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C40" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="2">
+      <c r="D40" s="15">
         <v>42879</v>
       </c>
-      <c r="D39" s="2">
+      <c r="E40" s="15">
         <v>42923</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F40" s="14">
         <v>46</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="3" t="s">
+      <c r="G40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C41" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="4">
+      <c r="D41" s="17">
         <v>42879</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E41" s="17">
         <v>42906</v>
       </c>
-      <c r="E40" s="3">
+      <c r="F41" s="16">
         <v>28</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G41" s="16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3" t="s">
+      <c r="H41" s="16"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C42" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D42" s="17">
         <v>42907</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E42" s="17">
         <v>42911</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F42" s="16">
         <v>5</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G42" s="16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3" t="s">
+      <c r="H42" s="16"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C43" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="4">
+      <c r="D43" s="17">
         <v>42912</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E43" s="17">
         <v>42916</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F43" s="16">
         <v>5</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G43" s="16" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3" t="s">
+      <c r="H43" s="16"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C44" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="D44" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E44" s="17">
         <v>42890</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F44" s="16">
         <v>5</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G44" s="16" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3" t="s">
+      <c r="H44" s="16"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C45" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="4">
+      <c r="D45" s="17">
         <v>42891</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E45" s="17">
         <v>42923</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F45" s="16">
         <v>3</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G45" s="16" t="s">
         <v>84</v>
       </c>
+      <c r="H45" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
+  <mergeCells count="15">
+    <mergeCell ref="A1:A1048576"/>
+    <mergeCell ref="B1:XFD1"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C9:M10"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1573,5 +1733,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>